--- a/QuestAnalyse/excDoc/ShortSample.xlsx
+++ b/QuestAnalyse/excDoc/ShortSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\Travail\Stage\Dublin\dataAnalyse\excDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\Travail\Stage\Dublin\QuestAnalyse\excDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0F427-38C7-4814-8E6C-BFC737C1BE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D819EDE2-E2E1-4688-8752-4926E47242BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8472" yWindow="1440" windowWidth="18756" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rasa Toolkit questionnaire" sheetId="1" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:CN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1305,18 +1305,18 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">RANDBETWEEN(20,35)</f>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">RANDBETWEEN(3,30)</f>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>71</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L2" s="1">
         <f t="shared" ref="L2:M22" ca="1" si="0">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1337,11 +1337,11 @@
       </c>
       <c r="N2" s="1">
         <f t="shared" ref="L2:N22" ca="1" si="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O22" ca="1" si="2">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>74</v>
@@ -1355,14 +1355,14 @@
       </c>
       <c r="S2" s="1">
         <f t="shared" ref="S2:S22" ca="1" si="4">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" ref="U2:U22" ca="1" si="5">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>72</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="AB2" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -1394,23 +1394,23 @@
       </c>
       <c r="AD2" s="1">
         <f t="shared" ref="AD2:AF17" ca="1" si="7">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG2" s="1">
         <f t="shared" ref="AG2:AI17" ca="1" si="8">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH2" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -1418,15 +1418,15 @@
       </c>
       <c r="AJ2" s="1">
         <f t="shared" ref="AJ2:AL17" ca="1" si="9">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK2" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL2" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>79</v>
@@ -1439,26 +1439,26 @@
       </c>
       <c r="AP2" s="1">
         <f t="shared" ref="AP2:AW17" ca="1" si="10">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS2" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT2" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU2" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -1466,39 +1466,39 @@
       </c>
       <c r="AW2" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX2" s="1">
         <f t="shared" ref="AX2:BE17" ca="1" si="11">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BE2" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF2" s="1">
         <f t="shared" ref="BF2:BI17" ca="1" si="12">RANDBETWEEN(1,7)</f>
@@ -1506,25 +1506,25 @@
       </c>
       <c r="BG2" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH2" s="1">
         <v>7</v>
       </c>
       <c r="BI2" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ2" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="BL2" s="1">
         <f t="shared" ref="BL2:BN17" ca="1" si="13">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BM2" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -1532,65 +1532,65 @@
       </c>
       <c r="BN2" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BO2" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BQ2" s="1">
         <f t="shared" ref="BQ2:BR17" ca="1" si="14">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BR2" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BS2" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BU2" s="6">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BV2" s="6">
         <f t="shared" ref="BU2:CE17" ca="1" si="15">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BW2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BX2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BY2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BZ2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CD2" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -1598,23 +1598,23 @@
       </c>
       <c r="CE2" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CF2" s="6">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CG2" s="6">
         <f t="shared" ref="CG2:CN17" ca="1" si="16">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CH2" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CI2" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CJ2" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -1622,15 +1622,15 @@
       </c>
       <c r="CK2" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CL2" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CM2" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CN2" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -1652,18 +1652,18 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E22" ca="1" si="17">RANDBETWEEN(20,35)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G22" ca="1" si="18">RANDBETWEEN(3,30)</f>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H22" ca="1" si="19">RANDBETWEEN(10,100)</f>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>71</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="L3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -1684,32 +1684,32 @@
       </c>
       <c r="N3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>72</v>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="AA3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -1754,19 +1754,19 @@
       </c>
       <c r="AH3" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL3" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -1783,14 +1783,14 @@
       </c>
       <c r="AP3" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR3" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS3" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -1798,77 +1798,77 @@
       </c>
       <c r="AT3" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BE3" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BF3" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG3" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="1">
         <v>7</v>
       </c>
       <c r="BI3" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ3" s="1">
         <f t="shared" ref="BJ3:BJ22" ca="1" si="20">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK3" t="s">
         <v>161</v>
       </c>
       <c r="BL3" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM3" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -1876,34 +1876,34 @@
       </c>
       <c r="BN3" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BO3" s="1">
         <f t="shared" ref="BO3:BO22" ca="1" si="21">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BP3" t="s">
         <v>179</v>
       </c>
       <c r="BQ3" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BR3" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS3" s="1">
         <f t="shared" ref="BS3:BS22" ca="1" si="22">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BU3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BV3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW3" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -1911,11 +1911,11 @@
       </c>
       <c r="BX3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BY3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ3" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -1927,35 +1927,35 @@
       </c>
       <c r="CB3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CE3" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CF3" s="6">
         <f t="shared" ref="CF3:CF22" ca="1" si="23">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CG3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CH3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CI3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CJ3" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -1963,19 +1963,19 @@
       </c>
       <c r="CK3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN3" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,18 +1993,18 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>71</v>
@@ -2017,15 +2017,15 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -2036,21 +2036,21 @@
       </c>
       <c r="Q4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>76</v>
@@ -2066,23 +2066,23 @@
       </c>
       <c r="Z4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -2090,31 +2090,31 @@
       </c>
       <c r="AF4" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH4" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI4" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK4" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>93</v>
@@ -2127,38 +2127,38 @@
       </c>
       <c r="AP4" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AR4" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
       <c r="AV4" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f ca="1">RANDBETWEEN(1,7)</f>
         <v>1</v>
       </c>
       <c r="AW4" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2166,53 +2166,53 @@
       </c>
       <c r="AZ4" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC4" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD4" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF4" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG4" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH4" s="1">
         <v>7</v>
       </c>
       <c r="BI4" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ4" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BK4" t="s">
         <v>162</v>
       </c>
       <c r="BL4" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BM4" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="BN4" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -2231,47 +2231,47 @@
       </c>
       <c r="BQ4" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR4" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BS4" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BV4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BX4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BY4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BZ4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CA4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CB4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC4" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -2279,11 +2279,11 @@
       </c>
       <c r="CD4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE4" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CF4" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -2291,35 +2291,35 @@
       </c>
       <c r="CG4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CH4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CI4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CJ4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CK4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CL4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN4" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2337,18 +2337,18 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>71</v>
@@ -2364,11 +2364,11 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -2379,21 +2379,21 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>72</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="AA5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -2421,23 +2421,23 @@
       </c>
       <c r="AC5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH5" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -2445,19 +2445,19 @@
       </c>
       <c r="AI5" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL5" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>79</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AS5" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -2485,66 +2485,66 @@
       </c>
       <c r="AT5" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU5" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV5" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE5" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG5" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH5" s="1">
         <v>7</v>
       </c>
       <c r="BI5" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ5" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -2555,41 +2555,41 @@
       </c>
       <c r="BL5" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BM5" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BN5" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO5" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="BQ5" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR5" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BS5" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BU5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BV5" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="BW5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BX5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BY5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BZ5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CB5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CD5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CE5" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF5" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CG5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CI5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CJ5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CK5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CL5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CM5" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CN5" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -2683,18 +2683,18 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>71</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -2718,28 +2718,28 @@
       </c>
       <c r="O6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>72</v>
@@ -2752,39 +2752,39 @@
       </c>
       <c r="Z6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -2792,11 +2792,11 @@
       </c>
       <c r="AJ6" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -2813,58 +2813,58 @@
       </c>
       <c r="AP6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="BE6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BF6" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -2880,52 +2880,52 @@
       </c>
       <c r="BG6" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH6" s="1">
         <v>7</v>
       </c>
       <c r="BI6" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ6" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>163</v>
       </c>
       <c r="BL6" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BM6" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BN6" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BO6" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP6" s="1" t="s">
         <v>182</v>
       </c>
       <c r="BQ6" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BR6" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU6" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="BV6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX6" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -2945,39 +2945,39 @@
       </c>
       <c r="BY6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BZ6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CB6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CD6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE6" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF6" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CG6" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CH6" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -2985,11 +2985,11 @@
       </c>
       <c r="CI6" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ6" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK6" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="CL6" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CM6" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -3023,18 +3023,18 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>71</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -3058,14 +3058,14 @@
       </c>
       <c r="O7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>102</v>
@@ -3095,15 +3095,15 @@
       </c>
       <c r="Z7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -3111,39 +3111,39 @@
       </c>
       <c r="AD7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ7" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>93</v>
@@ -3156,46 +3156,46 @@
       </c>
       <c r="AP7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AR7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA7" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="BB7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC7" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3211,41 +3211,41 @@
       </c>
       <c r="BD7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BE7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH7" s="1">
         <v>7</v>
       </c>
       <c r="BI7" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ7" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>164</v>
       </c>
       <c r="BL7" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM7" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BN7" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -3260,23 +3260,23 @@
       </c>
       <c r="BQ7" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BR7" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS7" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BV7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BW7" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="BX7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BY7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ7" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3296,11 +3296,11 @@
       </c>
       <c r="CA7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CB7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC7" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3308,15 +3308,15 @@
       </c>
       <c r="CD7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE7" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CF7" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CG7" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -3324,31 +3324,31 @@
       </c>
       <c r="CH7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CI7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CJ7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CK7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CL7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CM7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CN7" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,18 +3366,18 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>71</v>
@@ -3393,22 +3393,22 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>75</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="U8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>72</v>
@@ -3438,31 +3438,31 @@
       </c>
       <c r="Z8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AD8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -3470,23 +3470,23 @@
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK8" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL8" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>79</v>
@@ -3499,50 +3499,50 @@
       </c>
       <c r="AP8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AR8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA8" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB8" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3550,19 +3550,19 @@
       </c>
       <c r="BC8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BF8" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG8" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -3573,52 +3573,52 @@
       </c>
       <c r="BI8" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ8" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>82</v>
       </c>
       <c r="BL8" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM8" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BN8" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO8" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>184</v>
       </c>
       <c r="BQ8" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR8" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BS8" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BT8" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BU8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BV8" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3630,27 +3630,27 @@
       </c>
       <c r="BX8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BY8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BZ8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CA8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CB8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CD8" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3658,19 +3658,19 @@
       </c>
       <c r="CE8" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CF8" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CG8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CH8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CI8" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="CJ8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CK8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CL8" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -3690,11 +3690,11 @@
       </c>
       <c r="CM8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CN8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,18 +3712,18 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>71</v>
@@ -3736,26 +3736,26 @@
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>91</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>72</v>
@@ -3786,31 +3786,31 @@
       </c>
       <c r="AA9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH9" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -3818,15 +3818,15 @@
       </c>
       <c r="AI9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ9" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL9" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -3843,54 +3843,54 @@
       </c>
       <c r="AP9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AS9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AU9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -3898,15 +3898,15 @@
       </c>
       <c r="BD9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF9" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG9" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -3917,49 +3917,49 @@
       </c>
       <c r="BI9" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ9" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>165</v>
       </c>
       <c r="BL9" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BM9" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BN9" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO9" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BP9" s="1" t="s">
         <v>185</v>
       </c>
       <c r="BQ9" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BR9" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BS9" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BU9" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BV9" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3971,11 +3971,11 @@
       </c>
       <c r="BX9" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BY9" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ9" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3983,11 +3983,11 @@
       </c>
       <c r="CA9" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CB9" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC9" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -3999,11 +3999,11 @@
       </c>
       <c r="CE9" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CF9" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CG9" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -4011,31 +4011,31 @@
       </c>
       <c r="CH9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CI9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CJ9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CK9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CL9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CM9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CN9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,18 +4053,18 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>71</v>
@@ -4084,25 +4084,25 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>102</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>72</v>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="Z10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="AE10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -4161,19 +4161,19 @@
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL10" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>93</v>
@@ -4186,26 +4186,26 @@
       </c>
       <c r="AP10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AR10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV10" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4213,27 +4213,27 @@
       </c>
       <c r="AW10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="BD10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF10" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -4253,14 +4253,14 @@
       </c>
       <c r="BG10" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BH10" s="1">
         <v>7</v>
       </c>
       <c r="BI10" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ10" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="BL10" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BM10" s="1">
         <f t="shared" ca="1" si="13"/>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="BN10" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -4290,27 +4290,27 @@
       </c>
       <c r="BQ10" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BR10" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS10" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BU10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BV10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BX10" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -4318,67 +4318,67 @@
       </c>
       <c r="BY10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BZ10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CA10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CC10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CD10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CE10" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CF10" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CG10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CH10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CI10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CK10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4396,18 +4396,18 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>71</v>
@@ -4423,22 +4423,22 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>75</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>72</v>
@@ -4468,35 +4468,35 @@
       </c>
       <c r="Z11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -4504,15 +4504,15 @@
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK11" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL11" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -4529,30 +4529,30 @@
       </c>
       <c r="AP11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AR11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4560,31 +4560,31 @@
       </c>
       <c r="AX11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BD11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -4592,37 +4592,37 @@
       </c>
       <c r="BF11" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG11" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH11" s="1">
         <v>7</v>
       </c>
       <c r="BI11" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ11" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BK11" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BL11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BM11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BN11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO11" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -4631,15 +4631,15 @@
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BR11" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BS11" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="1" t="s">
         <v>84</v>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="BV11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BW11" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -4658,15 +4658,15 @@
       </c>
       <c r="BX11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BY11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BZ11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CA11" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -4674,27 +4674,27 @@
       </c>
       <c r="CB11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CC11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CD11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CE11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CF11" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CG11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CH11" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -4702,19 +4702,19 @@
       </c>
       <c r="CI11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CK11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CL11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CM11" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="CN11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,18 +4740,18 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>71</v>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -4772,32 +4772,32 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>72</v>
@@ -4810,19 +4810,19 @@
       </c>
       <c r="Z12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD12" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -4834,11 +4834,11 @@
       </c>
       <c r="AF12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH12" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -4846,11 +4846,11 @@
       </c>
       <c r="AI12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ12" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK12" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="AL12" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>79</v>
@@ -4871,14 +4871,14 @@
       </c>
       <c r="AP12" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR12" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="AT12" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AU12" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="AV12" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -4902,39 +4902,39 @@
       </c>
       <c r="AX12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF12" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG12" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -4945,53 +4945,53 @@
       </c>
       <c r="BI12" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ12" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>168</v>
       </c>
       <c r="BL12" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BM12" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BN12" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BO12" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BP12" s="1" t="s">
         <v>186</v>
       </c>
       <c r="BQ12" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR12" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS12" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BU12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BV12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BW12" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -4999,23 +4999,23 @@
       </c>
       <c r="BX12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BY12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BZ12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CA12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CB12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CC12" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -5023,19 +5023,19 @@
       </c>
       <c r="CD12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE12" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CF12" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CH12" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -5043,27 +5043,27 @@
       </c>
       <c r="CI12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CJ12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CL12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,18 +5081,18 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>71</v>
@@ -5108,15 +5108,15 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>101</v>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>76</v>
@@ -5153,23 +5153,23 @@
       </c>
       <c r="Z13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE13" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="AF13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -5189,19 +5189,19 @@
       </c>
       <c r="AI13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AK13" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>93</v>
@@ -5221,104 +5221,104 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AS13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BE13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BH13" s="1">
         <v>0</v>
       </c>
       <c r="BI13" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ13" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>169</v>
       </c>
       <c r="BL13" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BM13" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN13" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO13" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BP13" s="1" t="s">
         <v>187</v>
       </c>
       <c r="BQ13" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BR13" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -5330,15 +5330,15 @@
       </c>
       <c r="BU13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BV13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BX13" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -5346,19 +5346,19 @@
       </c>
       <c r="BY13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BZ13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CA13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CB13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC13" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -5366,15 +5366,15 @@
       </c>
       <c r="CD13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE13" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CF13" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CG13" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -5382,31 +5382,31 @@
       </c>
       <c r="CH13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CI13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CJ13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CK13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CL13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CM13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CN13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5424,18 +5424,18 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>71</v>
@@ -5448,26 +5448,26 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>75</v>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>72</v>
@@ -5497,19 +5497,19 @@
       </c>
       <c r="Z14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -5517,35 +5517,35 @@
       </c>
       <c r="AE14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM14" s="1" t="s">
         <v>79</v>
@@ -5558,18 +5558,18 @@
       </c>
       <c r="AP14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AR14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" ca="1" si="10"/>
@@ -5577,31 +5577,31 @@
       </c>
       <c r="AU14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB14" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -5609,30 +5609,30 @@
       </c>
       <c r="BC14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF14" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG14" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH14" s="1">
         <v>0</v>
       </c>
       <c r="BI14" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BJ14" s="1">
         <f t="shared" ca="1" si="20"/>
@@ -5643,41 +5643,41 @@
       </c>
       <c r="BL14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BN14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BO14" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP14" s="1" t="s">
         <v>188</v>
       </c>
       <c r="BQ14" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BR14" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS14" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BU14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV14" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -5685,51 +5685,51 @@
       </c>
       <c r="BW14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BX14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BZ14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CB14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CC14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CE14" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CF14" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CG14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CH14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CI14" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -5737,23 +5737,23 @@
       </c>
       <c r="CJ14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CK14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CM14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CN14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5771,18 +5771,18 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>71</v>
@@ -5798,11 +5798,11 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -5813,21 +5813,21 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>72</v>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="Z15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -5852,15 +5852,15 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="AH15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -5880,15 +5880,15 @@
       </c>
       <c r="AJ15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1" t="s">
         <v>79</v>
@@ -5901,42 +5901,42 @@
       </c>
       <c r="AP15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY15" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ15" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="BA15" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB15" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="BD15" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BE15" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -5964,37 +5964,37 @@
       </c>
       <c r="BF15" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG15" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH15" s="1">
         <v>0</v>
       </c>
       <c r="BI15" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ15" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>171</v>
       </c>
       <c r="BL15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BM15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BN15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BO15" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -6002,23 +6002,23 @@
       </c>
       <c r="BQ15" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR15" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS15" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BU15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BV15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW15" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6026,11 +6026,11 @@
       </c>
       <c r="BX15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BY15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BZ15" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6038,15 +6038,15 @@
       </c>
       <c r="CA15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CB15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CD15" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6054,23 +6054,23 @@
       </c>
       <c r="CE15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF15" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CH15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CI15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CJ15" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -6078,19 +6078,19 @@
       </c>
       <c r="CK15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CL15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CM15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CN15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6108,18 +6108,18 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>71</v>
@@ -6135,29 +6135,29 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>102</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>72</v>
@@ -6184,51 +6184,51 @@
       </c>
       <c r="AA16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>93</v>
@@ -6241,50 +6241,50 @@
       </c>
       <c r="AP16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AR16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AW16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AZ16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB16" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="BC16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -6304,11 +6304,11 @@
       </c>
       <c r="BF16" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG16" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH16" s="1">
         <v>0</v>
@@ -6319,22 +6319,22 @@
       </c>
       <c r="BJ16" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>172</v>
       </c>
       <c r="BL16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BM16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BN16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BO16" s="1">
         <f t="shared" ca="1" si="21"/>
@@ -6342,91 +6342,91 @@
       </c>
       <c r="BQ16" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BR16" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS16" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BU16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BV16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BW16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BX16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BY16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BZ16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CA16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CB16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CC16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CD16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CE16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CF16" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CG16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CH16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CI16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CJ16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CL16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CM16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CN16" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -6448,18 +6448,18 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>71</v>
@@ -6479,25 +6479,25 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>75</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>76</v>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="Z17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -6528,19 +6528,19 @@
       </c>
       <c r="AB17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -6548,19 +6548,19 @@
       </c>
       <c r="AG17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK17" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="AL17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM17" s="1" t="s">
         <v>79</v>
@@ -6581,58 +6581,58 @@
       </c>
       <c r="AP17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AR17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AZ17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BA17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD17" s="1">
         <f t="shared" ca="1" si="11"/>
@@ -6640,26 +6640,26 @@
       </c>
       <c r="BE17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF17" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG17" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BH17" s="1">
         <v>0</v>
       </c>
       <c r="BI17" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>173</v>
@@ -6670,39 +6670,39 @@
       </c>
       <c r="BM17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BN17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BO17" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BR17" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS17" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BT17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BU17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BV17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BW17" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="BX17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BY17" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="BZ17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CA17" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="CB17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC17" s="6">
         <f t="shared" ca="1" si="15"/>
@@ -6734,43 +6734,43 @@
       </c>
       <c r="CD17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CE17" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CF17" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CG17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CI17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CK17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CL17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CM17" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CN17" s="6">
         <f t="shared" ca="1" si="16"/>
@@ -6792,18 +6792,18 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>71</v>
@@ -6816,11 +6816,11 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -6828,21 +6828,21 @@
       </c>
       <c r="O18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>76</v>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="Z18" s="1">
         <f t="shared" ref="Z18:AC22" ca="1" si="24">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -6874,23 +6874,23 @@
       </c>
       <c r="AC18" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD18" s="1">
         <f t="shared" ref="AD18:AF22" ca="1" si="25">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" ref="AG18:AI22" ca="1" si="26">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="AI18" s="1">
         <f ca="1">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ18" s="1">
         <f t="shared" ref="AJ18:AL22" ca="1" si="27">RANDBETWEEN(1,7)</f>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="AK18" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="1">
         <f t="shared" ca="1" si="27"/>
@@ -6923,18 +6923,18 @@
       </c>
       <c r="AP18" s="1">
         <f t="shared" ref="AP18:AW22" ca="1" si="28">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ18" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR18" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS18" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" ca="1" si="28"/>
@@ -6946,15 +6946,15 @@
       </c>
       <c r="AV18" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AW18" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="1">
         <f t="shared" ref="AX18:AX22" ca="1" si="29">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY18" s="1">
         <f t="shared" ref="AY18:AY22" ca="1" si="30">RANDBETWEEN(1,7)</f>
@@ -6962,105 +6962,105 @@
       </c>
       <c r="AZ18" s="1">
         <f t="shared" ref="AZ18:AZ22" ca="1" si="31">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA18" s="1">
         <f t="shared" ref="BA18:BA22" ca="1" si="32">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB18" s="1">
         <f t="shared" ref="BB18:BB22" ca="1" si="33">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC18" s="1">
         <f t="shared" ref="BC18:BC22" ca="1" si="34">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="1">
         <f t="shared" ref="BD18:BD22" ca="1" si="35">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="1">
         <f t="shared" ref="BE18:BE22" ca="1" si="36">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF18" s="1">
         <f t="shared" ref="BF18:BF22" ca="1" si="37">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG18" s="1">
         <f t="shared" ref="BG18:BG22" ca="1" si="38">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH18" s="1">
         <v>0</v>
       </c>
       <c r="BI18" s="1">
         <f t="shared" ref="BI18:BI22" ca="1" si="39">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ18" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>174</v>
       </c>
       <c r="BL18" s="1">
         <f t="shared" ref="BL18:BL22" ca="1" si="40">RANDBETWEEN(1,7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM18" s="1">
         <f t="shared" ref="BM18:BM22" ca="1" si="41">RANDBETWEEN(1,7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BN18" s="1">
         <f t="shared" ref="BN18:BN22" ca="1" si="42">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO18" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BQ18" s="1">
         <f t="shared" ref="BQ18:BQ22" ca="1" si="43">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BR18" s="1">
         <f t="shared" ref="BR18:BR22" ca="1" si="44">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BS18" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BU18" s="6">
         <f t="shared" ref="BU18:BU22" ca="1" si="45">RANDBETWEEN(1,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV18" s="6">
         <f t="shared" ref="BV18:BV22" ca="1" si="46">RANDBETWEEN(1,7)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BW18" s="6">
         <f t="shared" ref="BW18:BW22" ca="1" si="47">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BX18" s="6">
         <f t="shared" ref="BX18:BX22" ca="1" si="48">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BY18" s="6">
         <f t="shared" ref="BY18:BY22" ca="1" si="49">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BZ18" s="6">
         <f t="shared" ref="BZ18:BZ22" ca="1" si="50">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA18" s="6">
         <f t="shared" ref="CA18:CA22" ca="1" si="51">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CB18" s="6">
         <f t="shared" ref="CB18:CB22" ca="1" si="52">RANDBETWEEN(1,7)</f>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="CC18" s="6">
         <f t="shared" ref="CC18:CC22" ca="1" si="53">RANDBETWEEN(1,7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CD18" s="6">
         <f t="shared" ref="CD18:CD22" ca="1" si="54">RANDBETWEEN(1,7)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CE18" s="6">
         <f t="shared" ref="CE18:CE22" ca="1" si="55">RANDBETWEEN(1,7)</f>
@@ -7080,39 +7080,39 @@
       </c>
       <c r="CF18" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CG18" s="6">
         <f t="shared" ref="CG18:CN22" ca="1" si="56">RANDBETWEEN(1,7)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CH18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CI18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CJ18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CK18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CL18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CM18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CN18" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7130,18 +7130,18 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>71</v>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="O19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>101</v>
@@ -7179,14 +7179,14 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>76</v>
@@ -7202,15 +7202,15 @@
       </c>
       <c r="Z19" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -7218,11 +7218,11 @@
       </c>
       <c r="AD19" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" ca="1" si="25"/>
@@ -7230,15 +7230,15 @@
       </c>
       <c r="AG19" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="1">
         <f t="shared" ca="1" si="27"/>
@@ -7246,11 +7246,11 @@
       </c>
       <c r="AK19" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AL19" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" s="1" t="s">
         <v>93</v>
@@ -7263,96 +7263,96 @@
       </c>
       <c r="AP19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AQ19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AR19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AV19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW19" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX19" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY19" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ19" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA19" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB19" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="1">
         <f t="shared" ca="1" si="34"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD19" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE19" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF19" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG19" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="1">
         <v>0</v>
       </c>
       <c r="BI19" s="1">
         <f t="shared" ca="1" si="39"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ19" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>178</v>
       </c>
       <c r="BL19" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BM19" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BN19" s="1">
         <f t="shared" ca="1" si="42"/>
@@ -7360,39 +7360,39 @@
       </c>
       <c r="BO19" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BQ19" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR19" s="1">
         <f t="shared" ca="1" si="44"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU19" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV19" s="6">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BW19" s="6">
         <f t="shared" ca="1" si="47"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BX19" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BY19" s="6">
         <f t="shared" ca="1" si="49"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BZ19" s="6">
         <f t="shared" ca="1" si="50"/>
@@ -7400,35 +7400,35 @@
       </c>
       <c r="CA19" s="6">
         <f t="shared" ca="1" si="51"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CB19" s="6">
         <f t="shared" ca="1" si="52"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC19" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CD19" s="6">
         <f t="shared" ca="1" si="54"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CE19" s="6">
         <f t="shared" ca="1" si="55"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF19" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CG19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CI19" s="6">
         <f t="shared" ca="1" si="56"/>
@@ -7436,23 +7436,23 @@
       </c>
       <c r="CJ19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CK19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CM19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CN19" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,18 +7470,18 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>71</v>
@@ -7494,40 +7494,40 @@
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>72</v>
@@ -7543,19 +7543,19 @@
       </c>
       <c r="Z20" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB20" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD20" s="1">
         <f t="shared" ca="1" si="25"/>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="AF20" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -7575,23 +7575,23 @@
       </c>
       <c r="AH20" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI20" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK20" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL20" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AM20" s="1" t="s">
         <v>79</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="AP20" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ20" s="1" t="s">
         <v>81</v>
@@ -7615,11 +7615,11 @@
       </c>
       <c r="AS20" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT20" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AU20" s="1">
         <f t="shared" ca="1" si="28"/>
@@ -7627,73 +7627,73 @@
       </c>
       <c r="AV20" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW20" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY20" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AZ20" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA20" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB20" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="1">
         <f t="shared" ca="1" si="34"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD20" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BE20" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG20" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="1">
         <v>0</v>
       </c>
       <c r="BI20" s="1">
         <f t="shared" ca="1" si="39"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ20" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="BL20" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BM20" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN20" s="1">
         <f t="shared" ca="1" si="42"/>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="BO20" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1">
@@ -7710,34 +7710,34 @@
       </c>
       <c r="BR20" s="1">
         <f t="shared" ca="1" si="44"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BS20" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BT20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="BU20" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BV20" s="6">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BW20" s="6">
         <f t="shared" ca="1" si="47"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX20" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BY20" s="6">
         <f t="shared" ca="1" si="49"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BZ20" s="6">
         <f t="shared" ca="1" si="50"/>
@@ -7745,23 +7745,23 @@
       </c>
       <c r="CA20" s="6">
         <f t="shared" ca="1" si="51"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB20" s="6">
         <f t="shared" ca="1" si="52"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CC20" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD20" s="6">
         <f t="shared" ca="1" si="54"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CE20" s="6">
         <f t="shared" ca="1" si="55"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF20" s="6">
         <f t="shared" ca="1" si="23"/>
@@ -7769,35 +7769,35 @@
       </c>
       <c r="CG20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CH20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CI20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CJ20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CL20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CN20" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,11 +7822,11 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>71</v>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -7851,28 +7851,28 @@
       </c>
       <c r="O21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>91</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>72</v>
@@ -7885,19 +7885,19 @@
       </c>
       <c r="Z21" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD21" s="1">
         <f t="shared" ca="1" si="25"/>
@@ -7905,11 +7905,11 @@
       </c>
       <c r="AE21" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG21" s="1">
         <f t="shared" ca="1" si="26"/>
@@ -7917,11 +7917,11 @@
       </c>
       <c r="AH21" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ21" s="1">
         <f t="shared" ca="1" si="27"/>
@@ -7946,30 +7946,30 @@
       </c>
       <c r="AP21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ21" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AR21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AV21" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW21" s="1">
         <f t="shared" ca="1" si="28"/>
@@ -7977,15 +7977,15 @@
       </c>
       <c r="AX21" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ21" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA21" s="1">
         <f t="shared" ca="1" si="32"/>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="BB21" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="1">
         <f t="shared" ca="1" si="34"/>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="BE21" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="1">
         <f t="shared" ca="1" si="37"/>
@@ -8013,18 +8013,18 @@
       </c>
       <c r="BG21" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH21" s="1">
         <v>0</v>
       </c>
       <c r="BI21" s="1">
         <f t="shared" ca="1" si="39"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ21" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>176</v>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="BM21" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BN21" s="1">
         <f t="shared" ca="1" si="42"/>
@@ -8043,31 +8043,31 @@
       </c>
       <c r="BO21" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BQ21" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR21" s="1">
         <f t="shared" ca="1" si="44"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BS21" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BU21" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BV21" s="6">
         <f t="shared" ca="1" si="46"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW21" s="6">
         <f t="shared" ca="1" si="47"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX21" s="6">
         <f t="shared" ca="1" si="48"/>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="BZ21" s="6">
         <f t="shared" ca="1" si="50"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CA21" s="6">
         <f t="shared" ca="1" si="51"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CB21" s="6">
         <f t="shared" ca="1" si="52"/>
@@ -8095,23 +8095,23 @@
       </c>
       <c r="CD21" s="6">
         <f t="shared" ca="1" si="54"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE21" s="6">
         <f t="shared" ca="1" si="55"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CF21" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG21" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH21" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI21" s="6">
         <f t="shared" ca="1" si="56"/>
@@ -8119,15 +8119,15 @@
       </c>
       <c r="CJ21" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CK21" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL21" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM21" s="6">
         <f t="shared" ca="1" si="56"/>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="CN21" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8153,18 +8153,18 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>71</v>
@@ -8180,36 +8180,36 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>101</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>102</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>76</v>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="Z22" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" ca="1" si="24"/>
@@ -8233,43 +8233,43 @@
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="24"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD22" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" ca="1" si="25"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="26"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK22" s="1">
         <f t="shared" ca="1" si="27"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" ca="1" si="27"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="AP22" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ22" s="1" t="s">
         <v>105</v>
@@ -8297,59 +8297,59 @@
       </c>
       <c r="AS22" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU22" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV22" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="1">
         <f t="shared" ca="1" si="28"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="1">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY22" s="1">
         <f t="shared" ca="1" si="30"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ22" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA22" s="1">
         <f t="shared" ca="1" si="32"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB22" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC22" s="1">
         <f t="shared" ca="1" si="34"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD22" s="1">
         <f t="shared" ca="1" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BE22" s="1">
         <f t="shared" ca="1" si="36"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BF22" s="1">
         <f t="shared" ca="1" si="37"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG22" s="1">
         <f t="shared" ca="1" si="38"/>
@@ -8360,62 +8360,62 @@
       </c>
       <c r="BI22" s="1">
         <f t="shared" ca="1" si="39"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ22" s="1">
         <f t="shared" ca="1" si="20"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>177</v>
       </c>
       <c r="BL22" s="1">
         <f t="shared" ca="1" si="40"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BM22" s="1">
         <f t="shared" ca="1" si="41"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BN22" s="1">
         <f t="shared" ca="1" si="42"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BO22" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BQ22" s="1">
         <f t="shared" ca="1" si="43"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BR22" s="1">
         <f t="shared" ca="1" si="44"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="1">
         <f t="shared" ca="1" si="22"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BU22" s="6">
         <f t="shared" ca="1" si="45"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BV22" s="6">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW22" s="6">
         <f t="shared" ca="1" si="47"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BX22" s="6">
         <f t="shared" ca="1" si="48"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BY22" s="6">
         <f t="shared" ca="1" si="49"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZ22" s="6">
         <f t="shared" ca="1" si="50"/>
@@ -8423,47 +8423,47 @@
       </c>
       <c r="CA22" s="6">
         <f t="shared" ca="1" si="51"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CB22" s="6">
         <f t="shared" ca="1" si="52"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC22" s="6">
         <f t="shared" ca="1" si="53"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CD22" s="6">
         <f t="shared" ca="1" si="54"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE22" s="6">
         <f t="shared" ca="1" si="55"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF22" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CG22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CH22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CI22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CJ22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CK22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CL22" s="6">
         <f t="shared" ca="1" si="56"/>
@@ -8471,11 +8471,11 @@
       </c>
       <c r="CM22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CN22" s="6">
         <f t="shared" ca="1" si="56"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
